--- a/data/trans_orig/P1801_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1801_2016_2023-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>142502</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124291</v>
+        <v>124897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>160289</v>
+        <v>159862</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4850942891051637</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4231016364824216</v>
+        <v>0.4251648809898162</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5456445353134523</v>
+        <v>0.5441912301922269</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>148</v>
@@ -763,19 +763,19 @@
         <v>154321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>136174</v>
+        <v>138296</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171475</v>
+        <v>171811</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.534532543991062</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.471676329414365</v>
+        <v>0.4790262416744046</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5939480270306478</v>
+        <v>0.5951138421647629</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>279</v>
@@ -784,19 +784,19 @@
         <v>296823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>269640</v>
+        <v>271113</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>320432</v>
+        <v>320896</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5095987605856215</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4629303579805926</v>
+        <v>0.4654584044196277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.550132122258935</v>
+        <v>0.5509288411690716</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>151259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>133472</v>
+        <v>133899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169470</v>
+        <v>168864</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5149057108948364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4543554646865478</v>
+        <v>0.4558087698077734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5768983635175787</v>
+        <v>0.5748351190101839</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -834,19 +834,19 @@
         <v>134382</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>117228</v>
+        <v>116892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152529</v>
+        <v>150407</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.465467456008938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4060519729693522</v>
+        <v>0.4048861578352371</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.528323670585635</v>
+        <v>0.5209737583255954</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>264</v>
@@ -855,19 +855,19 @@
         <v>285641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>262032</v>
+        <v>261568</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>312824</v>
+        <v>311351</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4904012394143786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4498678777410647</v>
+        <v>0.4490711588309283</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5370696420194063</v>
+        <v>0.5345415955803724</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>234827</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>212463</v>
+        <v>212525</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>258338</v>
+        <v>257828</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4672478722468449</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4227491830429099</v>
+        <v>0.4228727336067896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5140285776788374</v>
+        <v>0.5130138090802433</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>276</v>
@@ -980,19 +980,19 @@
         <v>302287</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>276698</v>
+        <v>279552</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>326547</v>
+        <v>325083</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5778943672211709</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.528974825387445</v>
+        <v>0.534430933495211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6242722999771818</v>
+        <v>0.6214729371439242</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>496</v>
@@ -1001,19 +1001,19 @@
         <v>537114</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>504679</v>
+        <v>502433</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>569310</v>
+        <v>567171</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5236773393266762</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4920535369362702</v>
+        <v>0.489863206197632</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5550671176823345</v>
+        <v>0.5529820449168461</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>267748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>244237</v>
+        <v>244747</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>290112</v>
+        <v>290050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5327521277531552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4859714223211626</v>
+        <v>0.4869861909197567</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.57725081695709</v>
+        <v>0.5771272663932104</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>208</v>
@@ -1051,19 +1051,19 @@
         <v>220797</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>196537</v>
+        <v>198001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>246386</v>
+        <v>243532</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4221056327788291</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3757277000228182</v>
+        <v>0.3785270628560759</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4710251746125551</v>
+        <v>0.465569066504789</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>463</v>
@@ -1072,19 +1072,19 @@
         <v>488545</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>456349</v>
+        <v>458488</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>520980</v>
+        <v>523226</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4763226606733239</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4449328823176655</v>
+        <v>0.4470179550831538</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5079464630637297</v>
+        <v>0.510136793802368</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>136415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121488</v>
+        <v>119814</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154550</v>
+        <v>153163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4282178492337161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3813605141321627</v>
+        <v>0.3761065696380743</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4851429115985451</v>
+        <v>0.4807907467641434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>181</v>
@@ -1197,19 +1197,19 @@
         <v>186841</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>168160</v>
+        <v>167881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203516</v>
+        <v>205167</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5555649668211117</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5000162326486447</v>
+        <v>0.4991863131195073</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6051468767600259</v>
+        <v>0.6100541295034889</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>325</v>
@@ -1218,19 +1218,19 @@
         <v>323257</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>299268</v>
+        <v>296044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>350395</v>
+        <v>344897</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4936166619047895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4569855138944593</v>
+        <v>0.4520618349531886</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5350577854901054</v>
+        <v>0.5266619406414</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>182150</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>164015</v>
+        <v>165402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>197077</v>
+        <v>198751</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5717821507662839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5148570884014549</v>
+        <v>0.5192092532358569</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6186394858678373</v>
+        <v>0.6238934303619258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -1268,19 +1268,19 @@
         <v>149468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132793</v>
+        <v>131142</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>168149</v>
+        <v>168428</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4444350331788883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3948531232399741</v>
+        <v>0.389945870496511</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4999837673513553</v>
+        <v>0.5008136868804924</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>342</v>
@@ -1289,19 +1289,19 @@
         <v>331617</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>304479</v>
+        <v>309977</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>355606</v>
+        <v>358830</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5063833380952105</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4649422145098945</v>
+        <v>0.4733380593586</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5430144861055407</v>
+        <v>0.5479381650468115</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>204219</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185894</v>
+        <v>184449</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>224399</v>
+        <v>224266</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5519967151562688</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5024653042084971</v>
+        <v>0.4985603756626689</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6065431274268105</v>
+        <v>0.6061833432224589</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>218</v>
@@ -1414,19 +1414,19 @@
         <v>238574</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>218814</v>
+        <v>218873</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>257565</v>
+        <v>257996</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6160188195357884</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5649984201715816</v>
+        <v>0.5651493822730114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6650559051027114</v>
+        <v>0.66616886274275</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>415</v>
@@ -1435,19 +1435,19 @@
         <v>442793</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>413142</v>
+        <v>414777</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>469618</v>
+        <v>470465</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5847398923976476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5455845379222566</v>
+        <v>0.5477435851965756</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6201651747461298</v>
+        <v>0.6212837931258032</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>165745</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145565</v>
+        <v>145698</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>184070</v>
+        <v>185515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4480032848437313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3934568725731897</v>
+        <v>0.3938166567775411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4975346957915029</v>
+        <v>0.501439624337331</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>140</v>
@@ -1485,19 +1485,19 @@
         <v>148709</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129718</v>
+        <v>129287</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168469</v>
+        <v>168410</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3839811804642116</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3349440948972886</v>
+        <v>0.3338311372572499</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4350015798284184</v>
+        <v>0.434850617726989</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>297</v>
@@ -1506,19 +1506,19 @@
         <v>314454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>287629</v>
+        <v>286782</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>344105</v>
+        <v>342470</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4152601076023524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3798348252538704</v>
+        <v>0.378716206874197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4544154620777435</v>
+        <v>0.4522564148034244</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>97045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83473</v>
+        <v>83353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111899</v>
+        <v>110570</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4594483890652484</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3951925048251113</v>
+        <v>0.3946228260303509</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5297705253500602</v>
+        <v>0.5234821195769124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -1631,19 +1631,19 @@
         <v>119285</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105711</v>
+        <v>104713</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133884</v>
+        <v>133000</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5457078354742871</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4836093732849621</v>
+        <v>0.4790427880596976</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.612496366179873</v>
+        <v>0.608455146139923</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>219</v>
@@ -1652,19 +1652,19 @@
         <v>216330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>197055</v>
+        <v>195255</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>238864</v>
+        <v>237264</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5033172646762145</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4584722160396049</v>
+        <v>0.4542840077342032</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5557466359212859</v>
+        <v>0.55202354947399</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>114176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99322</v>
+        <v>100651</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127748</v>
+        <v>127868</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5405516109347516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4702294746499398</v>
+        <v>0.4765178804230876</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6048074951748886</v>
+        <v>0.6053771739696491</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -1702,19 +1702,19 @@
         <v>99302</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84703</v>
+        <v>85587</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112876</v>
+        <v>113874</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4542921645257128</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.387503633820127</v>
+        <v>0.391544853860077</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.516390626715038</v>
+        <v>0.5209572119403023</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>216</v>
@@ -1723,19 +1723,19 @@
         <v>213478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>190944</v>
+        <v>192544</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>232753</v>
+        <v>234553</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4966827353237854</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4442533640787141</v>
+        <v>0.44797645052601</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5415277839603949</v>
+        <v>0.5457159922657968</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>138188</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122162</v>
+        <v>121621</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>154786</v>
+        <v>153953</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.525182732448062</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4642759883172818</v>
+        <v>0.4622200465246052</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.588264790204781</v>
+        <v>0.5850987852097255</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>156</v>
@@ -1848,19 +1848,19 @@
         <v>163253</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>147601</v>
+        <v>146689</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>179945</v>
+        <v>179524</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5977456728298863</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5404362752006154</v>
+        <v>0.5370964072655338</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6588621365719416</v>
+        <v>0.6573190875232507</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>293</v>
@@ -1869,19 +1869,19 @@
         <v>301441</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>279583</v>
+        <v>277072</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>324580</v>
+        <v>323605</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5621402541234306</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5213781449686861</v>
+        <v>0.5166950535238627</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6052911363504265</v>
+        <v>0.6034731079552829</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>124935</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108337</v>
+        <v>109170</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>140961</v>
+        <v>141502</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.474817267551938</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4117352097952191</v>
+        <v>0.4149012147902745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5357240116827182</v>
+        <v>0.5377799534753949</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>107</v>
@@ -1919,19 +1919,19 @@
         <v>109862</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93170</v>
+        <v>93591</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>125514</v>
+        <v>126426</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4022543271701137</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3411378634280585</v>
+        <v>0.3426809124767493</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4595637247993846</v>
+        <v>0.4629035927344663</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>229</v>
@@ -1940,19 +1940,19 @@
         <v>234797</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>211658</v>
+        <v>212633</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>256655</v>
+        <v>259166</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4378597458765693</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3947088636495735</v>
+        <v>0.3965268920447172</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4786218550313139</v>
+        <v>0.4833049464761373</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>233139</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>209054</v>
+        <v>208886</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>256628</v>
+        <v>261351</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3550933416412397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3184087705506008</v>
+        <v>0.3181529798822237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3908685046217665</v>
+        <v>0.3980618372606576</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>310</v>
@@ -2065,19 +2065,19 @@
         <v>339779</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>312455</v>
+        <v>313748</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>366572</v>
+        <v>366427</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4915122006685317</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4519849861128668</v>
+        <v>0.4538561118259516</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5302692681687202</v>
+        <v>0.530059092548955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>518</v>
@@ -2086,19 +2086,19 @@
         <v>572919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>529771</v>
+        <v>533459</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>605994</v>
+        <v>609404</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4250606221501937</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3930484670119678</v>
+        <v>0.395784777230092</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4495994924821419</v>
+        <v>0.4521299809670118</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>423419</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>399930</v>
+        <v>395207</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>447504</v>
+        <v>447672</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6449066583587603</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6091314953782336</v>
+        <v>0.6019381627393424</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6815912294493991</v>
+        <v>0.6818470201177764</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>336</v>
@@ -2136,19 +2136,19 @@
         <v>351515</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>324722</v>
+        <v>324867</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>378839</v>
+        <v>377546</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5084877993314683</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4697307318312798</v>
+        <v>0.469940907451045</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5480150138871333</v>
+        <v>0.5461438881740484</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>708</v>
@@ -2157,19 +2157,19 @@
         <v>774933</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>741858</v>
+        <v>738448</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>818081</v>
+        <v>814393</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5749393778498063</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5504005075178581</v>
+        <v>0.5478700190329883</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6069515329880322</v>
+        <v>0.604215222769908</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>392416</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>363122</v>
+        <v>363738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>420364</v>
+        <v>420012</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5040125382795748</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.466388262617913</v>
+        <v>0.467178932580914</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5399088087030561</v>
+        <v>0.5394571668756287</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>469</v>
@@ -2282,19 +2282,19 @@
         <v>520423</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>489508</v>
+        <v>491673</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>547024</v>
+        <v>547126</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6299245583642992</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5925043620323011</v>
+        <v>0.5951257602628486</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6621228450398904</v>
+        <v>0.6622460547364037</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>852</v>
@@ -2303,19 +2303,19 @@
         <v>912838</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>872120</v>
+        <v>873046</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>953955</v>
+        <v>951054</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5688353182932624</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5434614490458525</v>
+        <v>0.5440383965802943</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5944571898882527</v>
+        <v>0.5926494781990226</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>386167</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>358219</v>
+        <v>358571</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>415461</v>
+        <v>414845</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4959874617204252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4600911912969437</v>
+        <v>0.4605428331243712</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5336117373820867</v>
+        <v>0.5328210674190856</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>286</v>
@@ -2353,19 +2353,19 @@
         <v>305744</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>279143</v>
+        <v>279041</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>336659</v>
+        <v>334494</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3700754416357008</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3378771549601096</v>
+        <v>0.3377539452635963</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4074956379676988</v>
+        <v>0.4048742397371514</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>653</v>
@@ -2374,19 +2374,19 @@
         <v>691912</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>650795</v>
+        <v>653696</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>732630</v>
+        <v>731704</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4311646817067376</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.405542810111747</v>
+        <v>0.4073505218009771</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.456538550954147</v>
+        <v>0.4559616034197057</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>1578751</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1519174</v>
+        <v>1520781</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1632380</v>
+        <v>1642791</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4651113728299096</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4475595343901225</v>
+        <v>0.4480329564789878</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4809109046290754</v>
+        <v>0.4839781006018267</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1878</v>
@@ -2499,19 +2499,19 @@
         <v>2024764</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1961045</v>
+        <v>1965910</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2085275</v>
+        <v>2082902</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5712342602635669</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5532577037495738</v>
+        <v>0.5546300577004409</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5883057871641788</v>
+        <v>0.5876364796677144</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3397</v>
@@ -2520,19 +2520,19 @@
         <v>3603515</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3525935</v>
+        <v>3518535</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3683798</v>
+        <v>3682806</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5193213263810103</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5081409029750081</v>
+        <v>0.507074423162391</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5308913670540194</v>
+        <v>0.5307484382959128</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>1815599</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1761970</v>
+        <v>1751559</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1875176</v>
+        <v>1873569</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5348886271700904</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5190890953709245</v>
+        <v>0.5160218993981732</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5524404656098776</v>
+        <v>0.5519670435210122</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1460</v>
@@ -2570,19 +2570,19 @@
         <v>1519778</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1459267</v>
+        <v>1461640</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1583497</v>
+        <v>1578632</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.428765739736433</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4116942128358212</v>
+        <v>0.4123635203322856</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4467422962504261</v>
+        <v>0.4453699422995591</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3172</v>
@@ -2591,19 +2591,19 @@
         <v>3335377</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3255094</v>
+        <v>3256086</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3412957</v>
+        <v>3420357</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4806786736189897</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4691086329459807</v>
+        <v>0.4692515617040873</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4918590970249918</v>
+        <v>0.4929255768376091</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>202002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>183686</v>
+        <v>184703</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>218255</v>
+        <v>220207</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6356927455429252</v>
+        <v>0.6356927455429253</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.578051327832412</v>
+        <v>0.5812535252831479</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6868399753682455</v>
+        <v>0.6929836990224127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>392</v>
@@ -2960,19 +2960,19 @@
         <v>224879</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209685</v>
+        <v>209987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>238412</v>
+        <v>237300</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7115048213316807</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6634304941546855</v>
+        <v>0.664386650811095</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7543233041796216</v>
+        <v>0.750803850986721</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>611</v>
@@ -2981,19 +2981,19 @@
         <v>426881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>401376</v>
+        <v>403094</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>449319</v>
+        <v>448959</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6734967438460739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6332566847684133</v>
+        <v>0.6359666976195048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7088975925765437</v>
+        <v>0.708329329928001</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>115765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>99512</v>
+        <v>97560</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134081</v>
+        <v>133064</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3643072544570748</v>
+        <v>0.3643072544570749</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.313160024631754</v>
+        <v>0.3070163009775871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.421948672167588</v>
+        <v>0.4187464747168517</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>146</v>
@@ -3031,19 +3031,19 @@
         <v>91182</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77649</v>
+        <v>78761</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106376</v>
+        <v>106074</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2884951786683193</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2456766958203783</v>
+        <v>0.2491961490132794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3365695058453145</v>
+        <v>0.335613349188905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>257</v>
@@ -3052,19 +3052,19 @@
         <v>206947</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>184509</v>
+        <v>184869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>232452</v>
+        <v>230734</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.326503256153926</v>
+        <v>0.3265032561539259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2911024074234562</v>
+        <v>0.2916706700719991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3667433152315863</v>
+        <v>0.3640333023804954</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>133126</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109359</v>
+        <v>108637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158507</v>
+        <v>159843</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.250875510537266</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2060854916810394</v>
+        <v>0.2047264935140646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2987058759520199</v>
+        <v>0.3012235009105466</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>218</v>
@@ -3177,19 +3177,19 @@
         <v>160942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141594</v>
+        <v>141728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>180906</v>
+        <v>181234</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2954819322573863</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2599608514208007</v>
+        <v>0.2602061791293331</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3321353362331803</v>
+        <v>0.3327375457801037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>326</v>
@@ -3198,19 +3198,19 @@
         <v>294068</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>265340</v>
+        <v>264776</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>326532</v>
+        <v>325574</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2734696844577243</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2467541117054473</v>
+        <v>0.2462295438987795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3036596040041181</v>
+        <v>0.3027690588024328</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>397521</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372140</v>
+        <v>370804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>421288</v>
+        <v>422010</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7491244894627339</v>
+        <v>0.749124489462734</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7012941240479802</v>
+        <v>0.6987764990894535</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7939145083189607</v>
+        <v>0.7952735064859353</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>496</v>
@@ -3248,19 +3248,19 @@
         <v>383733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363769</v>
+        <v>363441</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>403081</v>
+        <v>402947</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7045180677426136</v>
+        <v>0.7045180677426138</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6678646637668193</v>
+        <v>0.6672624542198961</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7400391485791994</v>
+        <v>0.7397938208706667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>770</v>
@@ -3269,19 +3269,19 @@
         <v>781254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>748790</v>
+        <v>749748</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>809982</v>
+        <v>810546</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7265303155422759</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6963403959958819</v>
+        <v>0.697230941197567</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7532458882945526</v>
+        <v>0.7537704561012205</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>205376</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>187406</v>
+        <v>188582</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>220416</v>
+        <v>222838</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6499380325549318</v>
+        <v>0.6499380325549319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5930689255774726</v>
+        <v>0.5967920142708284</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6975357110445659</v>
+        <v>0.7051993865719837</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>385</v>
@@ -3394,19 +3394,19 @@
         <v>242802</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>228225</v>
+        <v>227304</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>256604</v>
+        <v>257301</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6830005098585131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.641996384883524</v>
+        <v>0.6394059778080338</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7218256796128455</v>
+        <v>0.7237859413397428</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>637</v>
@@ -3415,19 +3415,19 @@
         <v>448178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>424808</v>
+        <v>423671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>471019</v>
+        <v>469087</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6674416960761899</v>
+        <v>0.6674416960761901</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6326392825830768</v>
+        <v>0.630945829797777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.701457552688676</v>
+        <v>0.698580951363467</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>110617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95577</v>
+        <v>93155</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128587</v>
+        <v>127411</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3500619674450682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.302464288955434</v>
+        <v>0.2948006134280158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4069310744225272</v>
+        <v>0.4032079857291715</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>150</v>
@@ -3465,19 +3465,19 @@
         <v>112691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>98889</v>
+        <v>98192</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>127268</v>
+        <v>128189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3169994901414869</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2781743203871551</v>
+        <v>0.2762140586602573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3580036151164761</v>
+        <v>0.3605940221919663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>258</v>
@@ -3486,19 +3486,19 @@
         <v>223308</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>200467</v>
+        <v>202399</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>246678</v>
+        <v>247815</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.33255830392381</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.298542447311324</v>
+        <v>0.3014190486365326</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3673607174169231</v>
+        <v>0.3690541702022225</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>185603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>159180</v>
+        <v>156997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208163</v>
+        <v>211275</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4974017787938663</v>
+        <v>0.4974017787938662</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4265910077927998</v>
+        <v>0.420739765256484</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5578619560061681</v>
+        <v>0.5662016861922861</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>334</v>
@@ -3611,19 +3611,19 @@
         <v>225628</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>204904</v>
+        <v>204309</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>245954</v>
+        <v>244650</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5360638572526515</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4868263951331959</v>
+        <v>0.4854118012478982</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.584354491499126</v>
+        <v>0.5812568686127175</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>494</v>
@@ -3632,19 +3632,19 @@
         <v>411231</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>379788</v>
+        <v>378749</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>445111</v>
+        <v>442914</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5178953603268789</v>
+        <v>0.5178953603268788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4782965490196878</v>
+        <v>0.4769885309148698</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5605629972582329</v>
+        <v>0.5577965424286766</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>187542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>164982</v>
+        <v>161870</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>213965</v>
+        <v>216148</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5025982212061338</v>
+        <v>0.502598221206134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4421380439938319</v>
+        <v>0.4337983138077141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5734089922072003</v>
+        <v>0.579260234743516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>263</v>
@@ -3682,19 +3682,19 @@
         <v>195270</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174944</v>
+        <v>176248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>215994</v>
+        <v>216589</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4639361427473486</v>
+        <v>0.4639361427473485</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4156455085008739</v>
+        <v>0.4187431313872825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.513173604866804</v>
+        <v>0.5145881987521019</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>395</v>
@@ -3703,19 +3703,19 @@
         <v>382812</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>348932</v>
+        <v>351129</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>414255</v>
+        <v>415294</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4821046396731211</v>
+        <v>0.482104639673121</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4394370027417671</v>
+        <v>0.4422034575713233</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5217034509803121</v>
+        <v>0.5230114690851302</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>115255</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102086</v>
+        <v>103104</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128068</v>
+        <v>128438</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5604024530881991</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4963691540224517</v>
+        <v>0.5013184316993365</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6226999856755568</v>
+        <v>0.6245019281148888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>356</v>
@@ -3828,19 +3828,19 @@
         <v>151552</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139255</v>
+        <v>140234</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161861</v>
+        <v>161838</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.666998764253761</v>
+        <v>0.6669987642537609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6128782929697032</v>
+        <v>0.617188422285212</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7123713141208401</v>
+        <v>0.7122668060024394</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>528</v>
@@ -3849,19 +3849,19 @@
         <v>266807</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>248119</v>
+        <v>248080</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>283803</v>
+        <v>281885</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6163539434103154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5731829130994217</v>
+        <v>0.5730937070581513</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6556182175648083</v>
+        <v>0.651186203286953</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>90410</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77597</v>
+        <v>77227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>103579</v>
+        <v>102561</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4395975469118009</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3773000143244432</v>
+        <v>0.3754980718851111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5036308459775485</v>
+        <v>0.4986815683006635</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -3899,19 +3899,19 @@
         <v>75663</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65354</v>
+        <v>65377</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>87960</v>
+        <v>86981</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3330012357462391</v>
+        <v>0.333001235746239</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2876286858791599</v>
+        <v>0.2877331939975607</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3871217070302968</v>
+        <v>0.382811577714788</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>243</v>
@@ -3920,19 +3920,19 @@
         <v>166072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>149076</v>
+        <v>150994</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>184760</v>
+        <v>184799</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3836460565896846</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3443817824351917</v>
+        <v>0.3488137967130471</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4268170869005782</v>
+        <v>0.4269062929418487</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>162308</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>146850</v>
+        <v>146019</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>177629</v>
+        <v>176924</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5995725978520634</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5424682157369507</v>
+        <v>0.5393988641161035</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6561654731386688</v>
+        <v>0.6535622308315238</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>338</v>
@@ -4045,19 +4045,19 @@
         <v>180894</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>168455</v>
+        <v>167926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>193643</v>
+        <v>193004</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6875783041434962</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6402980057712894</v>
+        <v>0.6382901119813914</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7360404784632215</v>
+        <v>0.7336083647888727</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>594</v>
@@ -4066,19 +4066,19 @@
         <v>343202</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>323208</v>
+        <v>322877</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>361717</v>
+        <v>363627</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6429473409262836</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6054915220623164</v>
+        <v>0.6048712766955805</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6776334004422789</v>
+        <v>0.6812105996520397</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>108399</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>93078</v>
+        <v>93783</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123857</v>
+        <v>124688</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4004274021479367</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3438345268613311</v>
+        <v>0.3464377691684762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4575317842630492</v>
+        <v>0.4606011358838965</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -4116,19 +4116,19 @@
         <v>82194</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69445</v>
+        <v>70084</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94633</v>
+        <v>95162</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3124216958565038</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2639595215367786</v>
+        <v>0.2663916352111272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3597019942287107</v>
+        <v>0.3617098880186088</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>236</v>
@@ -4137,19 +4137,19 @@
         <v>190593</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>172078</v>
+        <v>170168</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>210587</v>
+        <v>210918</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3570526590737164</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.322366599557721</v>
+        <v>0.3187894003479602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3945084779376837</v>
+        <v>0.395128723304419</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>427117</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>395149</v>
+        <v>396660</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>460971</v>
+        <v>457096</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5952944932560288</v>
+        <v>0.5952944932560287</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.550738094074524</v>
+        <v>0.552845175011314</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6424780066327298</v>
+        <v>0.6370777085706038</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>693</v>
@@ -4262,19 +4262,19 @@
         <v>543735</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>519370</v>
+        <v>519592</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>569594</v>
+        <v>567732</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7070596891058316</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6753766802749188</v>
+        <v>0.6756647200685585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7406867563305697</v>
+        <v>0.7382657367812264</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1076</v>
@@ -4283,19 +4283,19 @@
         <v>970852</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>934159</v>
+        <v>931900</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1009490</v>
+        <v>1013407</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.653113853730119</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6284299780440966</v>
+        <v>0.6269101887294982</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6791064406841179</v>
+        <v>0.6817418012057798</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>290372</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>256518</v>
+        <v>260393</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>322340</v>
+        <v>320829</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4047055067439713</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3575219933672703</v>
+        <v>0.3629222914293962</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.449261905925476</v>
+        <v>0.4471548249886859</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>264</v>
@@ -4333,19 +4333,19 @@
         <v>225273</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>199414</v>
+        <v>201276</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>249638</v>
+        <v>249416</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2929403108941683</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2593132436694302</v>
+        <v>0.2617342632187736</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.324623319725081</v>
+        <v>0.3243352799314415</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>478</v>
@@ -4354,19 +4354,19 @@
         <v>515645</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>477007</v>
+        <v>473090</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>552338</v>
+        <v>554597</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.346886146269881</v>
+        <v>0.3468861462698811</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3208935593158821</v>
+        <v>0.3182581987942202</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3715700219559034</v>
+        <v>0.3730898112705017</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>260871</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>235711</v>
+        <v>237364</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>286188</v>
+        <v>289536</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3268766141831173</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2953509997015158</v>
+        <v>0.2974216933914781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3585988451248557</v>
+        <v>0.3627941387032287</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>495</v>
@@ -4479,19 +4479,19 @@
         <v>354134</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>330338</v>
+        <v>331038</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>379549</v>
+        <v>382037</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4259848846116794</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3973604702679598</v>
+        <v>0.3982025646993957</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4565561104692146</v>
+        <v>0.4595483737056918</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>793</v>
@@ -4500,19 +4500,19 @@
         <v>615006</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>581016</v>
+        <v>575030</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>653852</v>
+        <v>650643</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3774422536504682</v>
+        <v>0.3774422536504681</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3565823360118147</v>
+        <v>0.3529084575483496</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4012833572930475</v>
+        <v>0.3993135105154798</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>537201</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>511884</v>
+        <v>508536</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>562361</v>
+        <v>560708</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6731233858168827</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6414011548751442</v>
+        <v>0.637205861296771</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7046490002984839</v>
+        <v>0.7025783066085217</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>567</v>
@@ -4550,19 +4550,19 @@
         <v>477197</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>451782</v>
+        <v>449294</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>500993</v>
+        <v>500293</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5740151153883206</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5434438895307854</v>
+        <v>0.5404516262943084</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6026395297320399</v>
+        <v>0.6017974353006041</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1031</v>
@@ -4571,19 +4571,19 @@
         <v>1014397</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>975551</v>
+        <v>978760</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1048387</v>
+        <v>1054373</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6225577463495319</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5987166427069525</v>
+        <v>0.6006864894845202</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6434176639881853</v>
+        <v>0.6470915424516507</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>1691660</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1629004</v>
+        <v>1628141</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1757002</v>
+        <v>1758829</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4792935760145582</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.461541466958131</v>
+        <v>0.4612968740448078</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4978068023987729</v>
+        <v>0.4983244264451837</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3211</v>
@@ -4696,19 +4696,19 @@
         <v>2084564</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2029767</v>
+        <v>2033412</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2136705</v>
+        <v>2142177</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5591990862763218</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5444992205222429</v>
+        <v>0.5454772121436779</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5731862402268891</v>
+        <v>0.5746539274091514</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5059</v>
@@ -4717,19 +4717,19 @@
         <v>3776224</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3687262</v>
+        <v>3690938</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3858273</v>
+        <v>3859759</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5203379198049807</v>
+        <v>0.5203379198049808</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5080794586278856</v>
+        <v>0.5085860506135231</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5316435867351338</v>
+        <v>0.5318484129088118</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>1837826</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1772484</v>
+        <v>1770657</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1900482</v>
+        <v>1901345</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5207064239854419</v>
+        <v>0.5207064239854418</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.502193197601227</v>
+        <v>0.5016755735548163</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5384585330418689</v>
+        <v>0.5387031259551921</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2143</v>
@@ -4767,19 +4767,19 @@
         <v>1643204</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1591063</v>
+        <v>1585591</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1698001</v>
+        <v>1694356</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4408009137236782</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4268137597731108</v>
+        <v>0.4253460725908484</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4555007794777571</v>
+        <v>0.454522787856322</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3668</v>
@@ -4788,19 +4788,19 @@
         <v>3481030</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3398981</v>
+        <v>3397495</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3569992</v>
+        <v>3566316</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4796620801950193</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4683564132648663</v>
+        <v>0.4681515870911883</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4919205413721146</v>
+        <v>0.4914139493864768</v>
       </c>
     </row>
     <row r="30">
